--- a/Data handler/full_model/Industry.xlsx
+++ b/Data handler/full_model/Industry.xlsx
@@ -14418,8 +14418,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -14439,6 +14439,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -14491,6 +14492,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -14644,7 +14650,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C5AB9B8-50CA-4FCA-A751-FC618AAF8A7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF12B869-8A77-4BF9-A98C-6F15561BEB24}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
